--- a/opm_hero_property/heroes/43.xlsx
+++ b/opm_hero_property/heroes/43.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11113</v>
       </c>
       <c r="D4" t="n">
-        <v>11113</v>
+        <v>11717</v>
       </c>
       <c r="E4" t="n">
         <v>266</v>
@@ -1304,7 +1305,7 @@
         <v>12375</v>
       </c>
       <c r="D5" t="n">
-        <v>12375</v>
+        <v>13664</v>
       </c>
       <c r="E5" t="n">
         <v>398</v>
@@ -1411,7 +1412,7 @@
         <v>13859</v>
       </c>
       <c r="D6" t="n">
-        <v>13859</v>
+        <v>15954</v>
       </c>
       <c r="E6" t="n">
         <v>546</v>
@@ -1518,7 +1519,7 @@
         <v>15566</v>
       </c>
       <c r="D7" t="n">
-        <v>15566</v>
+        <v>20734</v>
       </c>
       <c r="E7" t="n">
         <v>1023</v>
@@ -1625,7 +1626,7 @@
         <v>17495</v>
       </c>
       <c r="D8" t="n">
-        <v>17495</v>
+        <v>27346</v>
       </c>
       <c r="E8" t="n">
         <v>1516</v>
@@ -1732,7 +1733,7 @@
         <v>19721</v>
       </c>
       <c r="D9" t="n">
-        <v>19721</v>
+        <v>36248</v>
       </c>
       <c r="E9" t="n">
         <v>2001</v>
@@ -1839,7 +1840,7 @@
         <v>20909</v>
       </c>
       <c r="D10" t="n">
-        <v>20909</v>
+        <v>43662</v>
       </c>
       <c r="E10" t="n">
         <v>2365</v>
@@ -1946,7 +1947,7 @@
         <v>22318</v>
       </c>
       <c r="D11" t="n">
-        <v>22318</v>
+        <v>52765</v>
       </c>
       <c r="E11" t="n">
         <v>2759</v>
@@ -2053,7 +2054,7 @@
         <v>25287</v>
       </c>
       <c r="D12" t="n">
-        <v>25287</v>
+        <v>68966</v>
       </c>
       <c r="E12" t="n">
         <v>3395</v>
@@ -2160,7 +2161,7 @@
         <v>25880</v>
       </c>
       <c r="D13" t="n">
-        <v>25880</v>
+        <v>71256</v>
       </c>
       <c r="E13" t="n">
         <v>3820</v>
@@ -2267,7 +2268,7 @@
         <v>26474</v>
       </c>
       <c r="D14" t="n">
-        <v>26474</v>
+        <v>73546</v>
       </c>
       <c r="E14" t="n">
         <v>4244</v>
@@ -2374,7 +2375,7 @@
         <v>27068</v>
       </c>
       <c r="D15" t="n">
-        <v>27068</v>
+        <v>75836</v>
       </c>
       <c r="E15" t="n">
         <v>4669</v>
@@ -2481,7 +2482,7 @@
         <v>27661</v>
       </c>
       <c r="D16" t="n">
-        <v>27661</v>
+        <v>78126</v>
       </c>
       <c r="E16" t="n">
         <v>5093</v>
@@ -2588,7 +2589,7 @@
         <v>28255</v>
       </c>
       <c r="D17" t="n">
-        <v>28255</v>
+        <v>80416</v>
       </c>
       <c r="E17" t="n">
         <v>5518</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>34887.4087772</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4311.4344406</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2514.8594</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>46369.8388487</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6683.754542</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3619.802</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>79893.53455320001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12328.66435</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7392.636</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>79893.53455320001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12328.66435</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7392.636</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>76149.80343720001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10964.44885</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7392.636</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>282241.9876904</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44684.82067199999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>43</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>265013.2055384</v>
+      </c>
+      <c r="U8" t="n">
+        <v>38937.14131199999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>270756.1329224</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40853.03443199999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2140</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>276499.0603064</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42768.92755199999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>282241.9876904</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44684.82067199999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>282241.9876904</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44684.82067199999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31185.7362</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>43</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>419105.7676318</v>
+      </c>
+      <c r="U13" t="n">
+        <v>66218.8603896</v>
+      </c>
+      <c r="V13" t="n">
+        <v>53074.2108</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>43</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>419105.7676318</v>
+      </c>
+      <c r="U14" t="n">
+        <v>66218.8603896</v>
+      </c>
+      <c r="V14" t="n">
+        <v>53074.2108</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>43</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1036607.9374709</v>
+      </c>
+      <c r="U15" t="n">
+        <v>154245.6332792</v>
+      </c>
+      <c r="V15" t="n">
+        <v>155100.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>43</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5216842.392856</v>
+      </c>
+      <c r="U16" t="n">
+        <v>851441.428499</v>
+      </c>
+      <c r="V16" t="n">
+        <v>750353.7232</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8540868.486148</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1388256.828421</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1222780.3024</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>243520.6648433</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40773.18769219999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>28014.0696</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>43</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>325783.5725622</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51811.5597032</v>
+      </c>
+      <c r="V19" t="n">
+        <v>38382.247</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2140</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>411088.9845096</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65099.9445142</v>
+      </c>
+      <c r="V20" t="n">
+        <v>52398.6214</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>465991.5085311</v>
+      </c>
+      <c r="U21" t="n">
+        <v>75728.59336080001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60876.5006</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>539429.67571</v>
+      </c>
+      <c r="U22" t="n">
+        <v>89022.9360004</v>
+      </c>
+      <c r="V22" t="n">
+        <v>75737.4734</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>43</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>688977.458612</v>
+      </c>
+      <c r="U23" t="n">
+        <v>116362.316263</v>
+      </c>
+      <c r="V23" t="n">
+        <v>105786.5696</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/43.xlsx
+++ b/opm_hero_property/heroes/43.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>34887.4087772</v>
+        <v>5351719.392856</v>
       </c>
       <c r="U2" t="n">
-        <v>4311.4344406</v>
+        <v>875169.428499</v>
       </c>
       <c r="V2" t="n">
-        <v>2514.8594</v>
+        <v>772193.7232</v>
       </c>
       <c r="W2" t="n">
-        <v>1900</v>
+        <v>2540</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>12028769.69875</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1211674.3591491</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15846137.3578991</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>46369.8388487</v>
+        <v>688977.458612</v>
       </c>
       <c r="U3" t="n">
-        <v>6683.754542</v>
+        <v>116362.316263</v>
       </c>
       <c r="V3" t="n">
-        <v>3619.802</v>
+        <v>105786.5696</v>
       </c>
       <c r="W3" t="n">
-        <v>1900</v>
+        <v>2540</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1363677.81815</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>137332.5478767</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2115785.2160267</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>79893.53455320001</v>
+        <v>8037.3804</v>
       </c>
       <c r="U4" t="n">
-        <v>12328.66435</v>
+        <v>1541.5771</v>
       </c>
       <c r="V4" t="n">
-        <v>7392.636</v>
+        <v>638.8594000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19578.30394</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>24077.20394</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>79893.53455320001</v>
+        <v>21650.8059</v>
       </c>
       <c r="U5" t="n">
-        <v>12328.66435</v>
+        <v>3839.847</v>
       </c>
       <c r="V5" t="n">
-        <v>7392.636</v>
+        <v>1965.802</v>
       </c>
       <c r="W5" t="n">
-        <v>1900</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1070</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>50239.0117</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>62145.8117</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>76149.80343720001</v>
+        <v>62025.0124</v>
       </c>
       <c r="U6" t="n">
-        <v>10964.44885</v>
+        <v>9578.975</v>
       </c>
       <c r="V6" t="n">
-        <v>7392.636</v>
+        <v>6392.636</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>121389.0969</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>169445.0969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>282241.9876904</v>
+        <v>62025.0124</v>
       </c>
       <c r="U7" t="n">
-        <v>44684.82067199999</v>
+        <v>9578.975</v>
       </c>
       <c r="V7" t="n">
-        <v>31185.7362</v>
+        <v>6392.636</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>121389.0969</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>169683.0969</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>265013.2055384</v>
+        <v>62149.8034372</v>
       </c>
       <c r="U8" t="n">
-        <v>38937.14131199999</v>
+        <v>9624.448850000001</v>
       </c>
       <c r="V8" t="n">
-        <v>31185.7362</v>
+        <v>6392.636</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>121389.0969</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>438.5606022</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>170121.6575022</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>270756.1329224</v>
+        <v>263649.9128</v>
       </c>
       <c r="U9" t="n">
-        <v>40853.03443199999</v>
+        <v>38902.552</v>
       </c>
       <c r="V9" t="n">
-        <v>31185.7362</v>
+        <v>31312.7362</v>
       </c>
       <c r="W9" t="n">
-        <v>2140</v>
+        <v>1940</v>
       </c>
       <c r="X9" t="n">
         <v>930</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>723438.75475</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>276499.0603064</v>
+        <v>264224.2055384</v>
       </c>
       <c r="U10" t="n">
-        <v>42768.92755199999</v>
+        <v>39094.14131199999</v>
       </c>
       <c r="V10" t="n">
-        <v>31185.7362</v>
+        <v>31312.7362</v>
       </c>
       <c r="W10" t="n">
-        <v>2340</v>
+        <v>1940</v>
       </c>
       <c r="X10" t="n">
         <v>930</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1896.2589912</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>725335.0137411999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>282241.9876904</v>
+        <v>269967.1329224</v>
       </c>
       <c r="U11" t="n">
-        <v>44684.82067199999</v>
+        <v>41010.03443199999</v>
       </c>
       <c r="V11" t="n">
-        <v>31185.7362</v>
+        <v>31312.7362</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2140</v>
       </c>
       <c r="X11" t="n">
         <v>930</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>21188.8489032</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>744627.6036532</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>282241.9876904</v>
+        <v>275710.0603064</v>
       </c>
       <c r="U12" t="n">
-        <v>44684.82067199999</v>
+        <v>42925.92755199999</v>
       </c>
       <c r="V12" t="n">
-        <v>31185.7362</v>
+        <v>31312.7362</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2340</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7933,7 +8213,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>40481.4388152</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>763920.1935652</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>419105.7676318</v>
+        <v>281452.9876904</v>
       </c>
       <c r="U13" t="n">
-        <v>66218.8603896</v>
+        <v>44841.82067199999</v>
       </c>
       <c r="V13" t="n">
-        <v>53074.2108</v>
+        <v>31312.7362</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8044,31 +8348,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>59774.02872720001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>783212.7834772</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>419105.7676318</v>
+        <v>281452.9876904</v>
       </c>
       <c r="U14" t="n">
-        <v>66218.8603896</v>
+        <v>44841.82067199999</v>
       </c>
       <c r="V14" t="n">
-        <v>53074.2108</v>
+        <v>31312.7362</v>
       </c>
       <c r="W14" t="n">
         <v>2540</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8155,31 +8483,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>555412.1047499999</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>59774.02872720001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>782974.7834772</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1036607.9374709</v>
+        <v>421605.7676318</v>
       </c>
       <c r="U15" t="n">
-        <v>154245.6332792</v>
+        <v>67026.8603896</v>
       </c>
       <c r="V15" t="n">
-        <v>155100.8</v>
+        <v>53848.2108</v>
       </c>
       <c r="W15" t="n">
         <v>2540</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8266,31 +8618,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>858336.8675400001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>89080.64888004001</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1206259.31642004</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5216842.392856</v>
+        <v>421605.7676318</v>
       </c>
       <c r="U16" t="n">
-        <v>851441.428499</v>
+        <v>67026.8603896</v>
       </c>
       <c r="V16" t="n">
-        <v>750353.7232</v>
+        <v>53848.2108</v>
       </c>
       <c r="W16" t="n">
         <v>2540</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8377,31 +8753,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>858336.8675400001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>89080.64888004001</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1206497.31642004</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8540868.486148</v>
+        <v>1074102.9374709</v>
       </c>
       <c r="U17" t="n">
-        <v>1388256.828421</v>
+        <v>161102.6332792</v>
       </c>
       <c r="V17" t="n">
-        <v>1222780.3024</v>
+        <v>161733.8</v>
       </c>
       <c r="W17" t="n">
         <v>2540</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8488,64 +8888,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1975011.32198</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>196253.78511738</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3129411.45709738</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>243520.6648433</v>
+        <v>5351719.392856</v>
       </c>
       <c r="U18" t="n">
-        <v>40773.18769219999</v>
+        <v>875169.428499</v>
       </c>
       <c r="V18" t="n">
-        <v>28014.0696</v>
+        <v>772193.7232</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>2540</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>12028769.69875</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1211674.3591491</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15846137.3578991</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>325783.5725622</v>
+        <v>8850586.486148</v>
       </c>
       <c r="U19" t="n">
-        <v>51811.5597032</v>
+        <v>1442289.828421</v>
       </c>
       <c r="V19" t="n">
-        <v>38382.247</v>
+        <v>1272012.3024</v>
       </c>
       <c r="W19" t="n">
-        <v>2140</v>
+        <v>2540</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8710,31 +9158,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19515820.19445</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1969492.8466029</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26135186.0410529</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>411088.9845096</v>
+        <v>229520.6648433</v>
       </c>
       <c r="U20" t="n">
-        <v>65099.9445142</v>
+        <v>39433.18769219999</v>
       </c>
       <c r="V20" t="n">
-        <v>52398.6214</v>
+        <v>27014.0696</v>
       </c>
       <c r="W20" t="n">
-        <v>2340</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>580227.82233</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2068.43778948</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>661746.06011948</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>465991.5085311</v>
+        <v>296383.5725622</v>
       </c>
       <c r="U21" t="n">
-        <v>75728.59336080001</v>
+        <v>48997.5597032</v>
       </c>
       <c r="V21" t="n">
-        <v>60876.5006</v>
+        <v>36282.247</v>
       </c>
       <c r="W21" t="n">
-        <v>2540</v>
+        <v>1300</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>691589.65353</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>26580.10123428</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>850334.40476428</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>539429.67571</v>
+        <v>411088.9845096</v>
       </c>
       <c r="U22" t="n">
-        <v>89022.9360004</v>
+        <v>65099.9445142</v>
       </c>
       <c r="V22" t="n">
-        <v>75737.4734</v>
+        <v>52398.6214</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2340</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9043,31 +9563,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>882085.99398</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>62020.18072757999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1173543.67470758</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>688977.458612</v>
+        <v>465991.5085311</v>
       </c>
       <c r="U23" t="n">
-        <v>116362.316263</v>
+        <v>75728.59336080001</v>
       </c>
       <c r="V23" t="n">
-        <v>105786.5696</v>
+        <v>60876.5006</v>
       </c>
       <c r="W23" t="n">
         <v>2540</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9154,31 +9698,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>964780.7764699999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>99363.65470062001</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1351337.68117062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>43</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>539429.67571</v>
+      </c>
+      <c r="U24" t="n">
+        <v>89022.9360004</v>
+      </c>
+      <c r="V24" t="n">
+        <v>75737.4734</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1094837.36271</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>111671.79345276</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1602909.40616276</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>43</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>688977.458612</v>
+      </c>
+      <c r="U25" t="n">
+        <v>116362.316263</v>
+      </c>
+      <c r="V25" t="n">
+        <v>105786.5696</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1363677.81815</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>137332.5478767</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2115785.2160267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/43.xlsx
+++ b/opm_hero_property/heroes/43.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,39011;31,9020;41,2699</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,117035;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13518;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4769;31,1087;41,384</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,14308;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1629;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>39011.805</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9020.011</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2699.8848</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>117035.415</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>13518.3022</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4769.6355</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1087.009</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>384.6816</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>14308.9065</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1629.1018</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,39015;31,9021;41,2700</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,117047;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13520;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4773;31,1088;41,385</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,14321;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1631;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>39015.9945</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9021.396999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2700.3636</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>117047.9835</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>13520.3794</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4773.825</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1088.395</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>385.1604</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>14321.475</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1631.179</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,42005;31,10010;41,3147</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,126016;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,15003;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5095;31,1194;41,434</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15287;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1790;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>42005.34650969999</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>10010.88553465</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3147.24938778</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>126016.0395291</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>15003.32715193</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5095.712005650001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1194.94041205</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>434.52579834</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>15287.13601695</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1790.85874741</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45393;31,11132;41,3653</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,136179;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,16684;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5459;31,1315;41,490</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,16379;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1971;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>45393.1996266</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>11132.65374375</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3653.97221376</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>136179.5988798</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>16684.52262375</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5459.9815557</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1315.56376875</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>490.47856128</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>16379.9446671</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1971.63712875</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54865;31,11319;41,4349</t>
+          <t>21,49379;31,12451;41,4249</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54865;31,11319;41,4349</t>
+          <t>21,148138;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27432;31,5659;41,2174</t>
+          <t>21,0;31,18661;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6542;31,1324;41,569</t>
+          <t>21,5888;31,1457;41,556</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6542;31,1324;41,569</t>
+          <t>21,17665;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3271;31,662;41,284</t>
+          <t>21,0;31,2184;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54865</v>
+        <v>49379.3556543</v>
       </c>
       <c r="O6" t="n">
-        <v>11319</v>
+        <v>12451.66378995</v>
       </c>
       <c r="P6" t="n">
-        <v>4349</v>
+        <v>4249.91347236</v>
       </c>
       <c r="Q6" t="n">
-        <v>54865</v>
+        <v>148138.0669629</v>
       </c>
       <c r="R6" t="n">
-        <v>11319</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4349</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27432</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5659</v>
+        <v>18661.32469299</v>
       </c>
       <c r="V6" t="n">
-        <v>2174</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6542</v>
+        <v>5888.376172349999</v>
       </c>
       <c r="X6" t="n">
-        <v>1324</v>
+        <v>1457.31631815</v>
       </c>
       <c r="Y6" t="n">
-        <v>569</v>
+        <v>556.2382870800001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6542</v>
+        <v>17665.12851705</v>
       </c>
       <c r="AA6" t="n">
-        <v>1324</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3271</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>662</v>
+        <v>2184.08185863</v>
       </c>
       <c r="AE6" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,62040;31,12700;41,5623</t>
+          <t>21,55836;31,13970;41,5494</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,62040;31,12700;41,5623</t>
+          <t>21,167508;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,31020;31,6350;41,2811</t>
+          <t>21,0;31,20938;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7321;31,1474;41,710</t>
+          <t>21,6588;31,1622;41,694</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7321;31,1474;41,710</t>
+          <t>21,19766;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3660;31,737;41,355</t>
+          <t>21,0;31,2431;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>62040</v>
+        <v>55836.0476226</v>
       </c>
       <c r="O7" t="n">
-        <v>12700</v>
+        <v>13970.8824563</v>
       </c>
       <c r="P7" t="n">
-        <v>5623</v>
+        <v>5494.82445756</v>
       </c>
       <c r="Q7" t="n">
-        <v>62040</v>
+        <v>167508.1428678</v>
       </c>
       <c r="R7" t="n">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5623</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31020</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6350</v>
+        <v>20938.17968126</v>
       </c>
       <c r="V7" t="n">
-        <v>2811</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7321</v>
+        <v>6588.9594477</v>
       </c>
       <c r="X7" t="n">
-        <v>1474</v>
+        <v>1622.3715431</v>
       </c>
       <c r="Y7" t="n">
-        <v>710</v>
+        <v>694.48214268</v>
       </c>
       <c r="Z7" t="n">
-        <v>7321</v>
+        <v>19766.8783431</v>
       </c>
       <c r="AA7" t="n">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3660</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>737</v>
+        <v>2431.45033862</v>
       </c>
       <c r="AE7" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,71318;31,14260;41,7385</t>
+          <t>21,64186;31,15686;41,7216</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,71318;31,14260;41,7385</t>
+          <t>21,192558;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,35659;31,7130;41,3692</t>
+          <t>21,0;31,23509;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8323;31,1643;41,905</t>
+          <t>21,7491;31,1807;41,885</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8323;31,1643;41,905</t>
+          <t>21,22474;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4161;31,821;41,452</t>
+          <t>21,0;31,2709;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>71318</v>
+        <v>64186.2734751</v>
       </c>
       <c r="O8" t="n">
-        <v>14260</v>
+        <v>15686.57295975</v>
       </c>
       <c r="P8" t="n">
-        <v>7385</v>
+        <v>7216.38584964</v>
       </c>
       <c r="Q8" t="n">
-        <v>71318</v>
+        <v>192558.8204253</v>
       </c>
       <c r="R8" t="n">
-        <v>14260</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7385</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35659</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7130</v>
+        <v>23509.48726695</v>
       </c>
       <c r="V8" t="n">
-        <v>3692</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8323</v>
+        <v>7491.51343395</v>
       </c>
       <c r="X8" t="n">
-        <v>1643</v>
+        <v>1807.78596075</v>
       </c>
       <c r="Y8" t="n">
-        <v>905</v>
+        <v>885.23117892</v>
       </c>
       <c r="Z8" t="n">
-        <v>8323</v>
+        <v>22474.54030185</v>
       </c>
       <c r="AA8" t="n">
-        <v>1643</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4161</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>821</v>
+        <v>2709.33116715</v>
       </c>
       <c r="AE8" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,83252;31,16059;41,9756</t>
+          <t>21,74927;31,17665;41,9533</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,83252;31,16059;41,9756</t>
+          <t>21,224782;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,41626;31,8029;41,4878</t>
+          <t>21,0;31,26474;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9609;31,1836;41,1168</t>
+          <t>21,8648;31,2020;41,1141</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9609;31,1836;41,1168</t>
+          <t>21,25944;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4804;31,918;41,584</t>
+          <t>21,0;31,3028;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>83252</v>
+        <v>74927.44297080001</v>
       </c>
       <c r="O9" t="n">
-        <v>16059</v>
+        <v>17665.28052905</v>
       </c>
       <c r="P9" t="n">
-        <v>9756</v>
+        <v>9533.580700320001</v>
       </c>
       <c r="Q9" t="n">
-        <v>83252</v>
+        <v>224782.3289124</v>
       </c>
       <c r="R9" t="n">
-        <v>16059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9756</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41626</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8029</v>
+        <v>26474.97887081</v>
       </c>
       <c r="V9" t="n">
-        <v>4878</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9609</v>
+        <v>8648.299686600001</v>
       </c>
       <c r="X9" t="n">
-        <v>1836</v>
+        <v>2020.60728485</v>
       </c>
       <c r="Y9" t="n">
-        <v>1168</v>
+        <v>1141.43214096</v>
       </c>
       <c r="Z9" t="n">
-        <v>9609</v>
+        <v>25944.8990598</v>
       </c>
       <c r="AA9" t="n">
-        <v>1836</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1168</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4804</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>918</v>
+        <v>3028.28676197</v>
       </c>
       <c r="AE9" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,92194;31,17019;41,11731</t>
+          <t>21,82974;31,18721;41,11463</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,92194;31,17019;41,11731</t>
+          <t>21,248924;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,46097;31,8509;41,5865</t>
+          <t>21,0;31,28057;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10572;31,1940;41,1386</t>
+          <t>21,9514;31,2134;41,1354</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10572;31,1940;41,1386</t>
+          <t>21,28544;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5286;31,970;41,693</t>
+          <t>21,0;31,3198;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>92194</v>
+        <v>82974.7058679</v>
       </c>
       <c r="O10" t="n">
-        <v>17019</v>
+        <v>18721.23729245</v>
       </c>
       <c r="P10" t="n">
-        <v>11731</v>
+        <v>11463.39838908</v>
       </c>
       <c r="Q10" t="n">
-        <v>92194</v>
+        <v>248924.1176037</v>
       </c>
       <c r="R10" t="n">
-        <v>17019</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11731</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46097</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8509</v>
+        <v>28057.54264349</v>
       </c>
       <c r="V10" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10572</v>
+        <v>9514.97963955</v>
       </c>
       <c r="X10" t="n">
-        <v>1940</v>
+        <v>2134.12341065</v>
       </c>
       <c r="Y10" t="n">
-        <v>1386</v>
+        <v>1354.75817724</v>
       </c>
       <c r="Z10" t="n">
-        <v>10572</v>
+        <v>28544.93891865</v>
       </c>
       <c r="AA10" t="n">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5286</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>3198.41352713</v>
       </c>
       <c r="AE10" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,103099;31,18157;41,14156</t>
+          <t>21,92789;31,19973;41,13832</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,103099;31,18157;41,14156</t>
+          <t>21,278368;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,51549;31,9078;41,7078</t>
+          <t>21,0;31,29934;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11745;31,2062;41,1654</t>
+          <t>21,10570;31,2268;41,1616</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11745;31,2062;41,1654</t>
+          <t>21,31711;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5872;31,1031;41,827</t>
+          <t>21,0;31,3399;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>103099</v>
+        <v>92789.4861873</v>
       </c>
       <c r="O11" t="n">
-        <v>18157</v>
+        <v>19973.3941099</v>
       </c>
       <c r="P11" t="n">
-        <v>14156</v>
+        <v>13832.6505201</v>
       </c>
       <c r="Q11" t="n">
-        <v>103099</v>
+        <v>278368.4585619</v>
       </c>
       <c r="R11" t="n">
-        <v>18157</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14156</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>51549</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9078</v>
+        <v>29934.15169198</v>
       </c>
       <c r="V11" t="n">
-        <v>7078</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11745</v>
+        <v>10570.61300085</v>
       </c>
       <c r="X11" t="n">
-        <v>2062</v>
+        <v>2268.5202463</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654</v>
+        <v>1616.4808353</v>
       </c>
       <c r="Z11" t="n">
-        <v>11745</v>
+        <v>31711.83900255</v>
       </c>
       <c r="AA11" t="n">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5872</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1031</v>
+        <v>3399.83423926</v>
       </c>
       <c r="AE11" t="n">
-        <v>827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,123188;31,20556;41,18470</t>
+          <t>21,110869;31,22611;41,18048</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,123188;31,20556;41,18470</t>
+          <t>21,332609;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,61594;31,10278;41,9235</t>
+          <t>21,0;31,33888;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13903;31,2319;41,2130</t>
+          <t>21,12512;31,2551;41,2081</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13903;31,2319;41,2130</t>
+          <t>21,37538;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6951;31,1159;41,1065</t>
+          <t>21,0;31,3823;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>123188</v>
+        <v>110869.9449732</v>
       </c>
       <c r="O12" t="n">
-        <v>20556</v>
+        <v>22611.72448535</v>
       </c>
       <c r="P12" t="n">
-        <v>18470</v>
+        <v>18048.70144044</v>
       </c>
       <c r="Q12" t="n">
-        <v>123188</v>
+        <v>332609.8349196</v>
       </c>
       <c r="R12" t="n">
-        <v>20556</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>18470</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>61594</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10278</v>
+        <v>33888.22085207</v>
       </c>
       <c r="V12" t="n">
-        <v>9235</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13903</v>
+        <v>12512.7373014</v>
       </c>
       <c r="X12" t="n">
-        <v>2319</v>
+        <v>2551.54232795</v>
       </c>
       <c r="Y12" t="n">
-        <v>2130</v>
+        <v>2081.67105132</v>
       </c>
       <c r="Z12" t="n">
-        <v>13903</v>
+        <v>37538.2119042</v>
       </c>
       <c r="AA12" t="n">
-        <v>2319</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6951</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1159</v>
+        <v>3823.99980059</v>
       </c>
       <c r="AE12" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,126303;31,21036;41,19082</t>
+          <t>21,113673;31,23140;41,18646</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,126303;31,21036;41,19082</t>
+          <t>21,341019;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,63151;31,10518;41,9541</t>
+          <t>21,0;31,34681;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14247;31,2372;41,2199</t>
+          <t>21,12823;31,2610;41,2149</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,14247;31,2372;41,2199</t>
+          <t>21,38469;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,7123;31,1186;41,1099</t>
+          <t>21,0;31,3911;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>126303</v>
+        <v>113673.0607236</v>
       </c>
       <c r="O13" t="n">
-        <v>21036</v>
+        <v>23140.720834</v>
       </c>
       <c r="P13" t="n">
-        <v>19082</v>
+        <v>18646.21589904</v>
       </c>
       <c r="Q13" t="n">
-        <v>126303</v>
+        <v>341019.1821708</v>
       </c>
       <c r="R13" t="n">
-        <v>21036</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19082</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63151</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10518</v>
+        <v>34681.0283668</v>
       </c>
       <c r="V13" t="n">
-        <v>9541</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14247</v>
+        <v>12823.0231122</v>
       </c>
       <c r="X13" t="n">
-        <v>2372</v>
+        <v>2610.111658</v>
       </c>
       <c r="Y13" t="n">
-        <v>2199</v>
+        <v>2149.00397712</v>
       </c>
       <c r="Z13" t="n">
-        <v>14247</v>
+        <v>38469.0693366</v>
       </c>
       <c r="AA13" t="n">
-        <v>2372</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2199</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7123</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1186</v>
+        <v>3911.777731600001</v>
       </c>
       <c r="AE13" t="n">
-        <v>1099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,129413;31,21518;41,19693</t>
+          <t>21,116472;31,23670;41,19243</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,129413;31,21518;41,19693</t>
+          <t>21,349416;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,64706;31,10759;41,9846</t>
+          <t>21,0;31,35475;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14592;31,2426;41,2268</t>
+          <t>21,13132;31,2668;41,2216</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14592;31,2426;41,2268</t>
+          <t>21,39398;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7296;31,1213;41,1134</t>
+          <t>21,0;31,3999;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>129413</v>
+        <v>116472.3129297</v>
       </c>
       <c r="O14" t="n">
-        <v>21518</v>
+        <v>23670.6049657</v>
       </c>
       <c r="P14" t="n">
-        <v>19693</v>
+        <v>19243.76455764</v>
       </c>
       <c r="Q14" t="n">
-        <v>129413</v>
+        <v>349416.9387891</v>
       </c>
       <c r="R14" t="n">
-        <v>21518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19693</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>64706</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10759</v>
+        <v>35475.16640314</v>
       </c>
       <c r="V14" t="n">
-        <v>9846</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14592</v>
+        <v>13132.86959565</v>
       </c>
       <c r="X14" t="n">
-        <v>2426</v>
+        <v>2668.7754709</v>
       </c>
       <c r="Y14" t="n">
-        <v>2268</v>
+        <v>2216.37110292</v>
       </c>
       <c r="Z14" t="n">
-        <v>14592</v>
+        <v>39398.60878695</v>
       </c>
       <c r="AA14" t="n">
-        <v>2426</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2268</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7296</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1213</v>
+        <v>3999.69726418</v>
       </c>
       <c r="AE14" t="n">
-        <v>1134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,132523;31,22000;41,20305</t>
+          <t>21,119271;31,24200;41,19841</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,132523;31,22000;41,20305</t>
+          <t>21,357814;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,66261;31,11000;41,10152</t>
+          <t>21,0;31,36269;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14936;31,2479;41,2337</t>
+          <t>21,13442;31,2727;41,2283</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14936;31,2479;41,2337</t>
+          <t>21,40328;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7468;31,1239;41,1168</t>
+          <t>21,0;31,4087;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>132523</v>
+        <v>119271.5966358</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>24200.4505974</v>
       </c>
       <c r="P15" t="n">
-        <v>20305</v>
+        <v>19841.31321624</v>
       </c>
       <c r="Q15" t="n">
-        <v>132523</v>
+        <v>357814.7899074</v>
       </c>
       <c r="R15" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>20305</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>66261</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11000</v>
+        <v>36269.24673948</v>
       </c>
       <c r="V15" t="n">
-        <v>10152</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14936</v>
+        <v>13442.7475791</v>
       </c>
       <c r="X15" t="n">
-        <v>2479</v>
+        <v>2727.4007838</v>
       </c>
       <c r="Y15" t="n">
-        <v>2337</v>
+        <v>2283.73822872</v>
       </c>
       <c r="Z15" t="n">
-        <v>14936</v>
+        <v>40328.2427373</v>
       </c>
       <c r="AA15" t="n">
-        <v>2479</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2337</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7468</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1239</v>
+        <v>4087.55909676</v>
       </c>
       <c r="AE15" t="n">
-        <v>1168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,135634;31,22481;41,20916</t>
+          <t>21,122070;31,24729;41,20438</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,135634;31,22481;41,20916</t>
+          <t>21,366212;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,67817;31,11240;41,10458</t>
+          <t>21,0;31,37062;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15280;31,2532;41,2406</t>
+          <t>21,13752;31,2785;41,2351</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,15280;31,2532;41,2406</t>
+          <t>21,41257;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7640;31,1266;41,1203</t>
+          <t>21,0;31,4175;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>135634</v>
+        <v>122070.8488419</v>
       </c>
       <c r="O16" t="n">
-        <v>22481</v>
+        <v>24729.44694605</v>
       </c>
       <c r="P16" t="n">
-        <v>20916</v>
+        <v>20438.86187484</v>
       </c>
       <c r="Q16" t="n">
-        <v>135634</v>
+        <v>366212.5465257</v>
       </c>
       <c r="R16" t="n">
-        <v>22481</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>20916</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67817</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11240</v>
+        <v>37062.05425421</v>
       </c>
       <c r="V16" t="n">
-        <v>10458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15280</v>
+        <v>13752.59406255</v>
       </c>
       <c r="X16" t="n">
-        <v>2532</v>
+        <v>2785.97011385</v>
       </c>
       <c r="Y16" t="n">
-        <v>2406</v>
+        <v>2351.10535452</v>
       </c>
       <c r="Z16" t="n">
-        <v>15280</v>
+        <v>41257.78218765</v>
       </c>
       <c r="AA16" t="n">
-        <v>2532</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2406</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7640</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1266</v>
+        <v>4175.337027770001</v>
       </c>
       <c r="AE16" t="n">
-        <v>1203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,138744;31,22962;41,21528</t>
+          <t>21,124870;31,25259;41,21036</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,138744;31,22962;41,21528</t>
+          <t>21,374610;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,69372;31,11481;41,10764</t>
+          <t>21,0;31,37856;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15624;31,2585;41,2475</t>
+          <t>21,14062;31,2844;41,2418</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,15624;31,2585;41,2475</t>
+          <t>21,42187;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7812;31,1292;41,1237</t>
+          <t>21,0;31,4263;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>138744</v>
+        <v>124870.132548</v>
       </c>
       <c r="O17" t="n">
-        <v>22962</v>
+        <v>25259.29257775</v>
       </c>
       <c r="P17" t="n">
-        <v>21528</v>
+        <v>21036.41053344</v>
       </c>
       <c r="Q17" t="n">
-        <v>138744</v>
+        <v>374610.397644</v>
       </c>
       <c r="R17" t="n">
-        <v>22962</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21528</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>69372</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11481</v>
+        <v>37856.13459055001</v>
       </c>
       <c r="V17" t="n">
-        <v>10764</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15624</v>
+        <v>14062.472046</v>
       </c>
       <c r="X17" t="n">
-        <v>2585</v>
+        <v>2844.59542675</v>
       </c>
       <c r="Y17" t="n">
-        <v>2475</v>
+        <v>2418.47248032</v>
       </c>
       <c r="Z17" t="n">
-        <v>15624</v>
+        <v>42187.416138</v>
       </c>
       <c r="AA17" t="n">
-        <v>2585</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7812</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1292</v>
+        <v>4263.198860349999</v>
       </c>
       <c r="AE17" t="n">
-        <v>1237</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8014</v>
+        <v>6992</v>
       </c>
       <c r="C2" t="n">
-        <v>1477</v>
+        <v>1414</v>
       </c>
       <c r="D2" t="n">
-        <v>891</v>
+        <v>1178</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>8014</v>
+        <v>24138</v>
       </c>
       <c r="I2" t="n">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4007</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>738</v>
+        <v>1663</v>
       </c>
       <c r="P2" t="n">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3522</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>787</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>465</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>12159</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>925</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8014;31,1477;41,891;22,40;32,40;42,40</t>
+          <t>21,6992;31,1414;41,1178;22,36;32,44;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,8014;31,1477;41,891;22,40;32,40;42,40</t>
+          <t>21,24138;31,0;41,0;22,108;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,4007;31,738;41,445;22,20;32,20;42,20</t>
+          <t>21,0;31,1663;41,0;22,0;32,66;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3522;31,787;41,465;22,31;32,38;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,12159;31,0;41,0;22,94;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,925;41,0;22,0;32,56;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16202</v>
+        <v>13985</v>
       </c>
       <c r="C3" t="n">
-        <v>2840</v>
+        <v>2829</v>
       </c>
       <c r="D3" t="n">
-        <v>1918</v>
+        <v>2357</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16202</v>
+        <v>48277</v>
       </c>
       <c r="I3" t="n">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8101</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1420</v>
+        <v>3326</v>
       </c>
       <c r="P3" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4079</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>581</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>14083</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>1027</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,16202;31,2840;41,1918;22,80;32,80;42,80</t>
+          <t>21,13985;31,2829;41,2357;22,72;32,88;42,78</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,16202;31,2840;41,1918;22,80;32,80;42,80</t>
+          <t>21,48277;31,0;41,0;22,216;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,8101;31,1420;41,959;22,40;32,40;42,40</t>
+          <t>21,0;31,3326;41,0;22,0;32,132;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4079;31,874;41,581;22,63;32,77;42,68</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,14083;31,0;41,0;22,189;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,1027;41,0;22,0;32,115;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24368</v>
+        <v>20978</v>
       </c>
       <c r="C4" t="n">
-        <v>4067</v>
+        <v>4243</v>
       </c>
       <c r="D4" t="n">
-        <v>3130</v>
+        <v>3536</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H4" t="n">
-        <v>24368</v>
+        <v>72416</v>
       </c>
       <c r="I4" t="n">
-        <v>4067</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12184</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2033</v>
+        <v>4989</v>
       </c>
       <c r="P4" t="n">
-        <v>1565</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5032</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1026</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>17370</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1206</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,24368;31,4067;41,3130;22,120;32,120;42,120</t>
+          <t>21,20978;31,4243;41,3536;22,108;32,132;42,117</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,24368;31,4067;41,3130;22,120;32,120;42,120</t>
+          <t>21,72416;31,0;41,0;22,324;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,12184;31,2033;41,1565;22,60;32,60;42,60</t>
+          <t>21,0;31,4989;41,0;22,0;32,198;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5032;31,1026;41,783;22,94;32,115;42,102</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,17370;31,0;41,0;22,283;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1206;41,0;22,0;32,171;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32444</v>
+        <v>27970</v>
       </c>
       <c r="C5" t="n">
-        <v>5403</v>
+        <v>5658</v>
       </c>
       <c r="D5" t="n">
-        <v>4217</v>
+        <v>4715</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H5" t="n">
-        <v>32444</v>
+        <v>96555</v>
       </c>
       <c r="I5" t="n">
-        <v>5403</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4217</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16222</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2701</v>
+        <v>6653</v>
       </c>
       <c r="P5" t="n">
-        <v>2108</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5400</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1099</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>18642</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1292</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,32444;31,5403;41,4217;22,160;32,160;42,160</t>
+          <t>21,27970;31,5658;41,4715;22,144;32,176;42,156</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,32444;31,5403;41,4217;22,160;32,160;42,160</t>
+          <t>21,96555;31,0;41,0;22,432;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,16222;31,2701;41,2108;22,80;32,80;42,80</t>
+          <t>21,0;31,6653;41,0;22,0;32,264;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5400;31,1099;41,853;22,126;32,154;42,136</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,18642;31,0;41,0;22,378;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1292;41,0;22,0;32,231;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40499</v>
+        <v>34963</v>
       </c>
       <c r="C6" t="n">
-        <v>6732</v>
+        <v>7072</v>
       </c>
       <c r="D6" t="n">
-        <v>5324</v>
+        <v>5894</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>40499</v>
+        <v>120694</v>
       </c>
       <c r="I6" t="n">
-        <v>6732</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5324</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20249</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3366</v>
+        <v>8316</v>
       </c>
       <c r="P6" t="n">
-        <v>2662</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5792</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1177</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>19996</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>472</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1384</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,40499;31,6732;41,5324;22,200;32,200;42,200</t>
+          <t>21,34963;31,7072;41,5894;22,180;32,220;42,195</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,40499;31,6732;41,5324;22,200;32,200;42,200</t>
+          <t>21,120694;31,0;41,0;22,540;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,20249;31,3366;41,2662;22,100;32,100;42,100</t>
+          <t>21,0;31,8316;41,0;22,0;32,330;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5792;31,1177;41,928;22,157;32,192;42,171</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,19996;31,0;41,0;22,472;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1384;41,0;22,0;32,287;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47255</v>
+        <v>41956</v>
       </c>
       <c r="C7" t="n">
-        <v>7844</v>
+        <v>8487</v>
       </c>
       <c r="D7" t="n">
-        <v>6908</v>
+        <v>7072</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H7" t="n">
-        <v>47255</v>
+        <v>144833</v>
       </c>
       <c r="I7" t="n">
-        <v>7844</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6908</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>648</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23627</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3922</v>
+        <v>9979</v>
       </c>
       <c r="P7" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6210</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1260</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1009</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>21439</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>567</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1481</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,47255;31,7844;41,6908;22,240;32,240;42,240</t>
+          <t>21,41956;31,8487;41,7072;22,216;32,264;42,234</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,47255;31,7844;41,6908;22,240;32,240;42,240</t>
+          <t>21,144833;31,0;41,0;22,648;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,23627;31,3922;41,3454;22,120;32,120;42,120</t>
+          <t>21,0;31,9979;41,0;22,0;32,396;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6210;31,1260;41,1009;22,189;32,231;42,205</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,21439;31,0;41,0;22,567;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1481;41,0;22,0;32,346;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54006</v>
+        <v>48948</v>
       </c>
       <c r="C8" t="n">
-        <v>8951</v>
+        <v>9901</v>
       </c>
       <c r="D8" t="n">
-        <v>8503</v>
+        <v>8251</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H8" t="n">
-        <v>54006</v>
+        <v>168972</v>
       </c>
       <c r="I8" t="n">
-        <v>8951</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8503</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>756</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27003</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4475</v>
+        <v>11643</v>
       </c>
       <c r="P8" t="n">
-        <v>4251</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6655</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1348</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1096</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>22975</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>661</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1585</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,54006;31,8951;41,8503;22,280;32,280;42,280</t>
+          <t>21,48948;31,9901;41,8251;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,54006;31,8951;41,8503;22,280;32,280;42,280</t>
+          <t>21,168972;31,0;41,0;22,756;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,27003;31,4475;41,4251;22,140;32,140;42,140</t>
+          <t>21,0;31,11643;41,0;22,0;32,462;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6655;31,1348;41,1096;22,220;32,269;42,239</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,22975;31,0;41,0;22,661;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1585;41,0;22,0;32,402;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>61281</v>
+        <v>55941</v>
       </c>
       <c r="C9" t="n">
-        <v>10142</v>
+        <v>11316</v>
       </c>
       <c r="D9" t="n">
-        <v>9918</v>
+        <v>9430</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H9" t="n">
-        <v>61281</v>
+        <v>193111</v>
       </c>
       <c r="I9" t="n">
-        <v>10142</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9918</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>850</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30640</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5071</v>
+        <v>13306</v>
       </c>
       <c r="P9" t="n">
-        <v>4959</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7400</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1496</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1243</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>25545</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>756</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1760</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,61281;31,10142;41,9918;22,315;32,315;42,315</t>
+          <t>21,55941;31,11316;41,9430;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,61281;31,10142;41,9918;22,315;32,315;42,315</t>
+          <t>21,193111;31,0;41,0;22,850;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,30640;31,5071;41,4959;22,157;32,157;42,157</t>
+          <t>21,0;31,13306;41,0;22,0;32,518;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7400;31,1496;41,1243;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,25545;31,0;41,0;22,756;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1760;41,0;22,0;32,462;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>69556</v>
+        <v>62934</v>
       </c>
       <c r="C10" t="n">
-        <v>11512</v>
+        <v>12730</v>
       </c>
       <c r="D10" t="n">
-        <v>10924</v>
+        <v>10609</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H10" t="n">
-        <v>69556</v>
+        <v>217250</v>
       </c>
       <c r="I10" t="n">
-        <v>11512</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10924</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>904</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>34778</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5756</v>
+        <v>14969</v>
       </c>
       <c r="P10" t="n">
-        <v>5462</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>551</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8012</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1620</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1363</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>27659</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>850</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1905</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,69556;31,11512;41,10924;22,335;32,335;42,335</t>
+          <t>21,62934;31,12730;41,10609;22,301;32,368;42,327</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,69556;31,11512;41,10924;22,335;32,335;42,335</t>
+          <t>21,217250;31,0;41,0;22,904;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,34778;31,5756;41,5462;22,167;32,167;42,167</t>
+          <t>21,0;31,14969;41,0;22,0;32,551;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8012;31,1620;41,1363;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,27659;31,0;41,0;22,850;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1905;41,0;22,0;32,518;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>77696</v>
+        <v>69927</v>
       </c>
       <c r="C11" t="n">
-        <v>12859</v>
+        <v>14145</v>
       </c>
       <c r="D11" t="n">
-        <v>12055</v>
+        <v>11788</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H11" t="n">
-        <v>77696</v>
+        <v>241389</v>
       </c>
       <c r="I11" t="n">
-        <v>12859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12055</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>945</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>38848</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6429</v>
+        <v>16633</v>
       </c>
       <c r="P11" t="n">
-        <v>6027</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8638</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1747</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1486</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>29819</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>945</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>2054</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,77696;31,12859;41,12055;22,350;32,350;42,350</t>
+          <t>21,69927;31,14145;41,11788;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,77696;31,12859;41,12055;22,350;32,350;42,350</t>
+          <t>21,241389;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,38848;31,6429;41,6027;22,175;32,175;42,175</t>
+          <t>21,0;31,16633;41,0;22,0;32,577;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8638;31,1747;41,1486;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,29819;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,2054;41,0;22,0;32,577;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5351719.392856</v>
+        <v>5546516.525404</v>
       </c>
       <c r="U2" t="n">
-        <v>875169.428499</v>
+        <v>914573.7210767501</v>
       </c>
       <c r="V2" t="n">
-        <v>772193.7232</v>
+        <v>805018.13373344</v>
       </c>
       <c r="W2" t="n">
         <v>2540</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,615999;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,54489;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>12028769.69875</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>655427.111901755</v>
       </c>
       <c r="AS2" t="n">
-        <v>15846137.3578991</v>
+        <v>16501564.46980086</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>688977.458612</v>
+        <v>711677.9306579999</v>
       </c>
       <c r="U3" t="n">
-        <v>116362.316263</v>
+        <v>120953.91168975</v>
       </c>
       <c r="V3" t="n">
-        <v>105786.5696</v>
+        <v>109691.04208032</v>
       </c>
       <c r="W3" t="n">
         <v>2540</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,72006;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,6317;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1363677.81815</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>76833.197252415</v>
       </c>
       <c r="AS3" t="n">
-        <v>2115785.2160267</v>
+        <v>2192618.413279115</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62025.0124</v>
+        <v>69166.76164464001</v>
       </c>
       <c r="U7" t="n">
-        <v>9578.975</v>
+        <v>11026.32249</v>
       </c>
       <c r="V7" t="n">
-        <v>6392.636</v>
+        <v>7588.726680400001</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,24587;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1713;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>121389.0969</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>24005.96833794</v>
       </c>
       <c r="AS7" t="n">
-        <v>169683.0969</v>
+        <v>193689.06523794</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>62149.8034372</v>
+        <v>76434.30192648</v>
       </c>
       <c r="U8" t="n">
-        <v>9624.448850000001</v>
+        <v>12520.14383</v>
       </c>
       <c r="V8" t="n">
-        <v>6392.636</v>
+        <v>8785.8173608</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,49175;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3426;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>121389.0969</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>48025.58667588</v>
       </c>
       <c r="AS8" t="n">
-        <v>170121.6575022</v>
+        <v>218147.24417808</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264224.2055384</v>
+        <v>271905.35682448</v>
       </c>
       <c r="U10" t="n">
-        <v>39094.14131199999</v>
+        <v>40648.64014079999</v>
       </c>
       <c r="V10" t="n">
-        <v>31312.7362</v>
+        <v>32587.61117118</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,26205;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1873;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>555412.1047499999</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25737.724289085</v>
       </c>
       <c r="AS10" t="n">
-        <v>725335.0137411999</v>
+        <v>751072.738030285</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>269967.1329224</v>
+        <v>308375.8893528</v>
       </c>
       <c r="U11" t="n">
-        <v>41010.03443199999</v>
+        <v>48784.528576</v>
       </c>
       <c r="V11" t="n">
-        <v>31312.7362</v>
+        <v>37691.1110559</v>
       </c>
       <c r="W11" t="n">
         <v>2140</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,131031;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9369;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>555412.1047499999</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>128728.421445425</v>
       </c>
       <c r="AS11" t="n">
-        <v>744627.6036532</v>
+        <v>873356.025098625</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>275710.0603064</v>
+        <v>314118.8167368</v>
       </c>
       <c r="U12" t="n">
-        <v>42925.92755199999</v>
+        <v>50700.42169599999</v>
       </c>
       <c r="V12" t="n">
-        <v>31312.7362</v>
+        <v>37691.1110559</v>
       </c>
       <c r="W12" t="n">
         <v>2340</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,131031;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9369;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>555412.1047499999</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>128728.421445425</v>
       </c>
       <c r="AS12" t="n">
-        <v>763920.1935652</v>
+        <v>892648.615010625</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>281452.9876904</v>
+        <v>357410.0614436</v>
       </c>
       <c r="U13" t="n">
-        <v>44841.82067199999</v>
+        <v>60216.185424</v>
       </c>
       <c r="V13" t="n">
-        <v>31312.7362</v>
+        <v>43950.25517804</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,259479;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,18475;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>555412.1047499999</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>254705.92466573</v>
       </c>
       <c r="AS13" t="n">
-        <v>783212.7834772</v>
+        <v>1037918.70814293</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>281452.9876904</v>
+        <v>319861.7441208</v>
       </c>
       <c r="U14" t="n">
-        <v>44841.82067199999</v>
+        <v>52616.314816</v>
       </c>
       <c r="V14" t="n">
-        <v>31312.7362</v>
+        <v>37691.1110559</v>
       </c>
       <c r="W14" t="n">
         <v>2540</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,131031;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9369;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>555412.1047499999</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>128728.421445425</v>
       </c>
       <c r="AS14" t="n">
-        <v>782974.7834772</v>
+        <v>911703.204922625</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>421605.7676318</v>
+        <v>469772.28673596</v>
       </c>
       <c r="U15" t="n">
-        <v>67026.8603896</v>
+        <v>76775.87077264</v>
       </c>
       <c r="V15" t="n">
-        <v>53848.2108</v>
+        <v>61897.49333272</v>
       </c>
       <c r="W15" t="n">
         <v>2540</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,163464;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,11872;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>858336.8675400001</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>161718.065310276</v>
       </c>
       <c r="AS15" t="n">
-        <v>1206259.31642004</v>
+        <v>1367977.381730316</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>421605.7676318</v>
+        <v>477799.3732533201</v>
       </c>
       <c r="U16" t="n">
-        <v>67026.8603896</v>
+        <v>78400.20583648</v>
       </c>
       <c r="V16" t="n">
-        <v>53848.2108</v>
+        <v>63239.37375484</v>
       </c>
       <c r="W16" t="n">
         <v>2540</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,190708;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,13851;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>858336.8675400001</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>188668.876195322</v>
       </c>
       <c r="AS16" t="n">
-        <v>1206497.31642004</v>
+        <v>1395166.192615362</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1074102.9374709</v>
+        <v>1148119.14326269</v>
       </c>
       <c r="U17" t="n">
-        <v>161102.6332792</v>
+        <v>176081.49644232</v>
       </c>
       <c r="V17" t="n">
-        <v>161733.8</v>
+        <v>174404.66224</v>
       </c>
       <c r="W17" t="n">
         <v>2540</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,247400;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,18789;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1975011.32198</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>250227.819497318</v>
       </c>
       <c r="AS17" t="n">
-        <v>3129411.45709738</v>
+        <v>3379639.276594698</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5351719.392856</v>
+        <v>5546516.525404</v>
       </c>
       <c r="U18" t="n">
-        <v>875169.428499</v>
+        <v>914573.7210767501</v>
       </c>
       <c r="V18" t="n">
-        <v>772193.7232</v>
+        <v>805018.13373344</v>
       </c>
       <c r="W18" t="n">
         <v>2540</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,615999;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,54489;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>12028769.69875</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>655427.111901755</v>
       </c>
       <c r="AS18" t="n">
-        <v>15846137.3578991</v>
+        <v>16501564.46980086</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8850586.486148</v>
+        <v>9045383.618696</v>
       </c>
       <c r="U19" t="n">
-        <v>1442289.828421</v>
+        <v>1481694.12099875</v>
       </c>
       <c r="V19" t="n">
-        <v>1272012.3024</v>
+        <v>1304836.71293344</v>
       </c>
       <c r="W19" t="n">
         <v>2540</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,615999;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,54489;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19515820.19445</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>655427.111901755</v>
       </c>
       <c r="AS19" t="n">
-        <v>26135186.0410529</v>
+        <v>26790613.15295466</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>229520.6648433</v>
+        <v>233649.31804471</v>
       </c>
       <c r="U20" t="n">
-        <v>39433.18769219999</v>
+        <v>40356.15738725999</v>
       </c>
       <c r="V20" t="n">
-        <v>27014.0696</v>
+        <v>27559.96943664</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,13998;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1125;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>580227.82233</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13636.068158004</v>
       </c>
       <c r="AS20" t="n">
-        <v>661746.06011948</v>
+        <v>675382.128277484</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>296383.5725622</v>
+        <v>301928.12803862</v>
       </c>
       <c r="U21" t="n">
-        <v>48997.5597032</v>
+        <v>50185.60239524</v>
       </c>
       <c r="V21" t="n">
-        <v>36282.247</v>
+        <v>37072.23987960001</v>
       </c>
       <c r="W21" t="n">
         <v>1300</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,18479;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1496;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>691589.65353</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>18284.509109196</v>
       </c>
       <c r="AS21" t="n">
-        <v>850334.40476428</v>
+        <v>868618.913873476</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>411088.9845096</v>
+        <v>421511.55380104</v>
       </c>
       <c r="U22" t="n">
-        <v>65099.9445142</v>
+        <v>67221.68246683999</v>
       </c>
       <c r="V22" t="n">
-        <v>52398.6214</v>
+        <v>54060.59822594</v>
       </c>
       <c r="W22" t="n">
         <v>2340</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,33917;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2796;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>882085.99398</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>34618.927913811</v>
       </c>
       <c r="AS22" t="n">
-        <v>1173543.67470758</v>
+        <v>1208162.602621391</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>465991.5085311</v>
+        <v>479710.2699105</v>
       </c>
       <c r="U23" t="n">
-        <v>75728.59336080001</v>
+        <v>78512.62680212001</v>
       </c>
       <c r="V23" t="n">
-        <v>60876.5006</v>
+        <v>63113.57026434</v>
       </c>
       <c r="W23" t="n">
         <v>2540</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,44198;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3731;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>964780.7764699999</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>45791.742694463</v>
       </c>
       <c r="AS23" t="n">
-        <v>1351337.68117062</v>
+        <v>1397129.423865083</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>539429.67571</v>
+        <v>555952.944354</v>
       </c>
       <c r="U24" t="n">
-        <v>89022.9360004</v>
+        <v>92367.14209552</v>
       </c>
       <c r="V24" t="n">
-        <v>75737.4734</v>
+        <v>78489.95792382001</v>
       </c>
       <c r="W24" t="n">
         <v>2540</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,52914;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4532;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1094837.36271</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>55425.076712293</v>
       </c>
       <c r="AS24" t="n">
-        <v>1602909.40616276</v>
+        <v>1658334.482875053</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>688977.458612</v>
+        <v>711677.9306579999</v>
       </c>
       <c r="U25" t="n">
-        <v>116362.316263</v>
+        <v>120953.91168975</v>
       </c>
       <c r="V25" t="n">
-        <v>105786.5696</v>
+        <v>109691.04208032</v>
       </c>
       <c r="W25" t="n">
         <v>2540</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,72006;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,6317;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1363677.81815</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>76833.197252415</v>
       </c>
       <c r="AS25" t="n">
-        <v>2115785.2160267</v>
+        <v>2192618.413279115</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/43.xlsx
+++ b/opm_hero_property/heroes/43.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>43</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5546516.525404</v>
+        <v>6497907.020764</v>
       </c>
       <c r="U2" t="n">
-        <v>914573.7210767501</v>
+        <v>1072033.56279675</v>
       </c>
       <c r="V2" t="n">
-        <v>805018.13373344</v>
+        <v>952641.11158944</v>
       </c>
       <c r="W2" t="n">
         <v>2540</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>12028769.69875</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1211674.3591491</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2972765.5759</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1924459.95</v>
+      </c>
+      <c r="AU2" t="n">
         <v>655427.111901755</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16501564.46980086</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19388259.99570085</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>43</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>711677.9306579999</v>
+        <v>818820.1453779999</v>
       </c>
       <c r="U3" t="n">
-        <v>120953.91168975</v>
+        <v>138685.75932975</v>
       </c>
       <c r="V3" t="n">
-        <v>109691.04208032</v>
+        <v>126662.28764832</v>
       </c>
       <c r="W3" t="n">
         <v>2540</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1363677.81815</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>137332.5478767</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>540883.025452</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>218048.4</v>
+      </c>
+      <c r="AU3" t="n">
         <v>76833.197252415</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2192618.413279115</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2519695.038731115</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>43</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8037.3804</v>
+        <v>8538.3804</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.5771</v>
+        <v>1624.5771</v>
       </c>
       <c r="V4" t="n">
-        <v>638.8594000000001</v>
+        <v>715.8594000000001</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19578.30394</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>24077.20394</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1516.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25593.65394</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>43</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21650.8059</v>
+        <v>36378.8059</v>
       </c>
       <c r="U5" t="n">
-        <v>3839.847</v>
+        <v>6276.847</v>
       </c>
       <c r="V5" t="n">
-        <v>1965.802</v>
+        <v>4250.802</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>50239.0117</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>62145.8117</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>44682.05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>106827.8617</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>43</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>62025.0124</v>
+        <v>125166.0124</v>
       </c>
       <c r="U6" t="n">
-        <v>9578.975</v>
+        <v>20028.975</v>
       </c>
       <c r="V6" t="n">
-        <v>6392.636</v>
+        <v>16189.636</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>121389.0969</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>169445.0969</v>
+      <c r="AT6" t="n">
+        <v>191578.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>361023.8469</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>43</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>69166.76164464001</v>
+        <v>132307.76164464</v>
       </c>
       <c r="U7" t="n">
-        <v>11026.32249</v>
+        <v>21476.32249</v>
       </c>
       <c r="V7" t="n">
-        <v>7588.726680400001</v>
+        <v>17385.7266804</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>121389.0969</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>191578.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>24005.96833794</v>
       </c>
-      <c r="AS7" t="n">
-        <v>193689.06523794</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>385267.81523794</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>43</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>76434.30192648</v>
+        <v>139575.30192648</v>
       </c>
       <c r="U8" t="n">
-        <v>12520.14383</v>
+        <v>22970.14383</v>
       </c>
       <c r="V8" t="n">
-        <v>8785.8173608</v>
+        <v>18582.8173608</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>121389.0969</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>438.5606022</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>191578.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>48025.58667588</v>
       </c>
-      <c r="AS8" t="n">
-        <v>218147.24417808</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>409725.99417808</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>43</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>263649.9128</v>
+        <v>450302.221928</v>
       </c>
       <c r="U9" t="n">
-        <v>38902.552</v>
+        <v>68650.86752</v>
       </c>
       <c r="V9" t="n">
-        <v>31312.7362</v>
+        <v>58573.133562</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>723438.75475</v>
+        <v>44291.8710475</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1272221.7257975</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>43</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>271905.35682448</v>
+        <v>516408.6639396246</v>
       </c>
       <c r="U10" t="n">
-        <v>40648.64014079999</v>
+        <v>79652.81406458881</v>
       </c>
       <c r="V10" t="n">
-        <v>32587.61117118</v>
+        <v>66422.47268677724</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1896.2589912</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44291.8710475</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25737.724289085</v>
       </c>
-      <c r="AS10" t="n">
-        <v>751072.738030285</v>
+      <c r="AV10" t="n">
+        <v>253867.1898564716</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1459375.298934257</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>43</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>308375.8893528</v>
+        <v>617710.3860534545</v>
       </c>
       <c r="U11" t="n">
-        <v>48784.528576</v>
+        <v>96792.28248345599</v>
       </c>
       <c r="V11" t="n">
-        <v>37691.1110559</v>
+        <v>78743.83556942221</v>
       </c>
       <c r="W11" t="n">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>21188.8489032</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44291.8710475</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU11" t="n">
         <v>128728.421445425</v>
       </c>
-      <c r="AS11" t="n">
-        <v>873356.025098625</v>
+      <c r="AV11" t="n">
+        <v>422325.7935673535</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1750117.189713479</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>43</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>314118.8167368</v>
+        <v>706028.7755079608</v>
       </c>
       <c r="U12" t="n">
-        <v>50700.42169599999</v>
+        <v>108128.736697536</v>
       </c>
       <c r="V12" t="n">
-        <v>37691.1110559</v>
+        <v>89719.85577145181</v>
       </c>
       <c r="W12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>40481.4388152</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44291.8710475</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU12" t="n">
         <v>128728.421445425</v>
       </c>
-      <c r="AS12" t="n">
-        <v>892648.615010625</v>
+      <c r="AV12" t="n">
+        <v>633135.2433486821</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1980219.229406807</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>43</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>357410.0614436</v>
+        <v>846301.1523536035</v>
       </c>
       <c r="U13" t="n">
-        <v>60216.185424</v>
+        <v>130692.595463824</v>
       </c>
       <c r="V13" t="n">
-        <v>43950.25517804</v>
+        <v>107095.3559467217</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>59774.02872720001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44291.8710475</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU13" t="n">
         <v>254705.92466573</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1037918.70814293</v>
+      <c r="AV13" t="n">
+        <v>884427.2785572088</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2376781.357747639</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>43</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>319861.7441208</v>
+        <v>940443.8158047424</v>
       </c>
       <c r="U14" t="n">
-        <v>52616.314816</v>
+        <v>137777.797464064</v>
       </c>
       <c r="V14" t="n">
-        <v>37691.1110559</v>
+        <v>110894.6006199296</v>
       </c>
       <c r="W14" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>555412.1047499999</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>59774.02872720001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44053.8710475</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>448889.5</v>
+      </c>
+      <c r="AU14" t="n">
         <v>128728.421445425</v>
       </c>
-      <c r="AS14" t="n">
-        <v>911703.204922625</v>
+      <c r="AV14" t="n">
+        <v>1175280.995901254</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2541419.571871379</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>43</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>469772.28673596</v>
+        <v>1493683.186385642</v>
       </c>
       <c r="U15" t="n">
-        <v>76775.87077264</v>
+        <v>229139.3649917648</v>
       </c>
       <c r="V15" t="n">
-        <v>61897.49333272</v>
+        <v>188539.748983315</v>
       </c>
       <c r="W15" t="n">
-        <v>2540</v>
+        <v>2640</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>858336.8675400001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>89080.64888004001</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128612.2373508</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>821330.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>161718.065310276</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1367977.381730316</v>
+      <c r="AV15" t="n">
+        <v>1966131.342401765</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4172589.361482881</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>43</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>477799.3732533201</v>
+        <v>1530180.715285734</v>
       </c>
       <c r="U16" t="n">
-        <v>78400.20583648</v>
+        <v>235111.6958990093</v>
       </c>
       <c r="V16" t="n">
-        <v>63239.37375484</v>
+        <v>193361.3887911195</v>
       </c>
       <c r="W16" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>858336.8675400001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>89080.64888004001</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128850.2373508</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>821330.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>188668.876195322</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1395166.192615362</v>
+      <c r="AV16" t="n">
+        <v>2045811.572571673</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4279458.402537836</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>43</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1148119.14326269</v>
+        <v>2797088.275201348</v>
       </c>
       <c r="U17" t="n">
-        <v>176081.49644232</v>
+        <v>413655.8777941031</v>
       </c>
       <c r="V17" t="n">
-        <v>174404.66224</v>
+        <v>382595.27158528</v>
       </c>
       <c r="W17" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1975011.32198</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>196253.78511738</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>767256.6528791999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1312286.65</v>
+      </c>
+      <c r="AU17" t="n">
         <v>250227.819497318</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3379639.276594698</v>
+      <c r="AV17" t="n">
+        <v>3096474.264122122</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7867367.643596019</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>43</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5546516.525404</v>
+        <v>9724818.868335407</v>
       </c>
       <c r="U18" t="n">
-        <v>914573.7210767501</v>
+        <v>1467077.123206767</v>
       </c>
       <c r="V18" t="n">
-        <v>805018.13373344</v>
+        <v>1288214.506756994</v>
       </c>
       <c r="W18" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>12028769.69875</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1211674.3591491</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2972765.5759</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1924459.95</v>
+      </c>
+      <c r="AU18" t="n">
         <v>655427.111901755</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16501564.46980086</v>
+      <c r="AV18" t="n">
+        <v>7884659.436613956</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27272919.43231481</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>43</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9045383.618696</v>
+        <v>16660707.81668966</v>
       </c>
       <c r="U19" t="n">
-        <v>1481694.12099875</v>
+        <v>2608922.95531612</v>
       </c>
       <c r="V19" t="n">
-        <v>1304836.71293344</v>
+        <v>2287599.246619433</v>
       </c>
       <c r="W19" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19515820.19445</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1969492.8466029</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6401389.4791675</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1924459.95</v>
+      </c>
+      <c r="AU19" t="n">
         <v>655427.111901755</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26790613.15295466</v>
+      <c r="AV19" t="n">
+        <v>16194778.49431047</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47837100.87643263</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>43</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>233649.31804471</v>
+        <v>240759.31804471</v>
       </c>
       <c r="U20" t="n">
-        <v>40356.15738725999</v>
+        <v>41532.15738725999</v>
       </c>
       <c r="V20" t="n">
-        <v>27559.96943664</v>
+        <v>28685.96943664</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>580227.82233</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2068.43778948</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21698.9</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13636.068158004</v>
       </c>
-      <c r="AS20" t="n">
-        <v>675382.128277484</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>697081.028277484</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>43</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>301928.12803862</v>
+        <v>316590.40657262</v>
       </c>
       <c r="U21" t="n">
-        <v>50185.60239524</v>
+        <v>52634.45004724</v>
       </c>
       <c r="V21" t="n">
-        <v>37072.23987960001</v>
+        <v>39333.58234960001</v>
       </c>
       <c r="W21" t="n">
         <v>1300</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>691589.65353</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>26580.10123428</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>70936.4465353</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>37654.4</v>
+      </c>
+      <c r="AU21" t="n">
         <v>18284.509109196</v>
       </c>
-      <c r="AS21" t="n">
-        <v>868618.913873476</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>913180.960408776</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>43</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>421511.55380104</v>
+        <v>552172.0435994344</v>
       </c>
       <c r="U22" t="n">
-        <v>67221.68246683999</v>
+        <v>85830.03089603104</v>
       </c>
       <c r="V22" t="n">
-        <v>54060.59822594</v>
+        <v>69975.26169289497</v>
       </c>
       <c r="W22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>882085.99398</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>62020.18072757999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>100707.8099398</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>50858.55</v>
+      </c>
+      <c r="AU22" t="n">
         <v>34618.927913811</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1208162.602621391</v>
+      <c r="AV22" t="n">
+        <v>291496.2489550036</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1559330.011516195</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>43</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>479710.2699105</v>
+        <v>702754.556354517</v>
       </c>
       <c r="U23" t="n">
-        <v>78512.62680212001</v>
+        <v>113816.704371026</v>
       </c>
       <c r="V23" t="n">
-        <v>63113.57026434</v>
+        <v>90983.30323585663</v>
       </c>
       <c r="W23" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>964780.7764699999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>99363.65470062001</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>161949.1155294</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>93055.5</v>
+      </c>
+      <c r="AU23" t="n">
         <v>45791.742694463</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1397129.423865083</v>
+      <c r="AV23" t="n">
+        <v>516958.7707262893</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2026422.810120772</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>43</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>555952.944354</v>
+        <v>887265.9592606439</v>
       </c>
       <c r="U24" t="n">
-        <v>92367.14209552</v>
+        <v>144893.6025700847</v>
       </c>
       <c r="V24" t="n">
-        <v>78489.95792382001</v>
+        <v>121518.5370651671</v>
       </c>
       <c r="W24" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1094837.36271</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>111671.79345276</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>282828.0945084</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>148688.15</v>
+      </c>
+      <c r="AU24" t="n">
         <v>55425.076712293</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1658334.482875053</v>
+      <c r="AV24" t="n">
+        <v>751111.2777354857</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2601894.405118939</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>43</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>711677.9306579999</v>
+        <v>1522051.608322464</v>
       </c>
       <c r="U25" t="n">
-        <v>120953.91168975</v>
+        <v>242394.1583807648</v>
       </c>
       <c r="V25" t="n">
-        <v>109691.04208032</v>
+        <v>215431.6570765258</v>
       </c>
       <c r="W25" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1363677.81815</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>137332.5478767</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>540883.025452</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>218048.4</v>
+      </c>
+      <c r="AU25" t="n">
         <v>76833.197252415</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2192618.413279115</v>
+      <c r="AV25" t="n">
+        <v>1931643.290608649</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4451338.329339764</v>
       </c>
     </row>
   </sheetData>
